--- a/views/Estadisticas_Mujer.xlsx
+++ b/views/Estadisticas_Mujer.xlsx
@@ -440,46 +440,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>36.3077638307764</v>
+        <v>38.3704717436806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.235936773593677</v>
+        <v>0.212043149251328</v>
       </c>
       <c r="E2" t="n">
-        <v>2.60065086006509</v>
+        <v>2.62630816293673</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00418410041841004</v>
+        <v>0.00547415875060377</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0734542073454207</v>
+        <v>0.092255675414587</v>
       </c>
       <c r="I2" t="n">
-        <v>0.323337982333798</v>
+        <v>0.304459829335051</v>
       </c>
       <c r="J2" t="n">
-        <v>0.51580660158066</v>
+        <v>0.488166156818548</v>
       </c>
       <c r="K2" t="n">
-        <v>1684984.3926662</v>
+        <v>1479216.01314704</v>
       </c>
       <c r="L2" t="n">
-        <v>1862846.92795986</v>
+        <v>1768288.71460581</v>
       </c>
       <c r="M2" t="n">
-        <v>49.9172477917248</v>
+        <v>57.4089518596039</v>
       </c>
       <c r="N2" t="n">
-        <v>47.963970246397</v>
+        <v>48.2455321204315</v>
       </c>
       <c r="O2" t="n">
-        <v>0.210599721059972</v>
+        <v>0.342778940589277</v>
       </c>
     </row>
     <row r="3">
@@ -487,46 +487,46 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>11.5838533877553</v>
+        <v>12.3530625885598</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.424632224531734</v>
+        <v>0.408788156917579</v>
       </c>
       <c r="E3" t="n">
-        <v>1.01304192200223</v>
+        <v>1.03572741567339</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0645566609428664</v>
+        <v>0.0737907109202279</v>
       </c>
       <c r="H3" t="n">
-        <v>0.260910924819696</v>
+        <v>0.289409832600254</v>
       </c>
       <c r="I3" t="n">
-        <v>0.467804875138025</v>
+        <v>0.460215321503014</v>
       </c>
       <c r="J3" t="n">
-        <v>0.499808182478886</v>
+        <v>0.499900185290834</v>
       </c>
       <c r="K3" t="n">
-        <v>1875670.13855269</v>
+        <v>1475297.77638229</v>
       </c>
       <c r="L3" t="n">
-        <v>2347775.41830716</v>
+        <v>2314997.89469669</v>
       </c>
       <c r="M3" t="n">
-        <v>73.2826991642275</v>
+        <v>80.2682431817876</v>
       </c>
       <c r="N3" t="n">
-        <v>9.03952178239814</v>
+        <v>11.4418403550813</v>
       </c>
       <c r="O3" t="n">
-        <v>0.407781965962974</v>
+        <v>0.474676537968896</v>
       </c>
     </row>
   </sheetData>
